--- a/data/long_bre/P50-Edad-long_bre.xlsx
+++ b/data/long_bre/P50-Edad-long_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:J60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -599,37 +615,47 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-10,8</t>
+          <t>-8,73</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>10,76</t>
+          <t>7,07</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>6,24</t>
+          <t>6,55</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-30,51%</t>
+          <t>-11,85</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>86,64%</t>
+          <t>-24,92%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>23,76%</t>
+          <t>46,06%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>24,65%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-32,92%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-23,04; 0,99</t>
+          <t>-20,18; 3,24</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 21,04</t>
+          <t>-6,91; 18,02</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,16; 18,72</t>
+          <t>-5,69; 19,91</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-54,76; 3,59</t>
+          <t>-28,82; 4,7</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-8,56; 287,48</t>
+          <t>-50,07; 11,73</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-18,69; 100,41</t>
+          <t>-34,44; 214,66</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-17,58; 108,19</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-60,37; 21,95</t>
         </is>
       </c>
     </row>
@@ -675,37 +711,47 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,6</t>
+          <t>-2,01</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-7,52</t>
+          <t>-5,97</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-10,22</t>
+          <t>-9,37</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-1,25%</t>
+          <t>6,02</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-13,49%</t>
+          <t>-4,18%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-18,17%</t>
+          <t>-11,32%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-17,01%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>17,5%</t>
         </is>
       </c>
     </row>
@@ -718,32 +764,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-13,37; 13,69</t>
+          <t>-14,44; 11,13</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-21,87; 7,56</t>
+          <t>-20,87; 9,73</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-23,18; 4,21</t>
+          <t>-23,42; 4,19</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-24,52; 34,78</t>
+          <t>-11,16; 21,88</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-34,51; 16,51</t>
+          <t>-26,91; 26,09</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-35,94; 9,67</t>
+          <t>-34,58; 22,96</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-36,65; 9,05</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-25,02; 98,68</t>
         </is>
       </c>
     </row>
@@ -751,37 +807,47 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>11,4</t>
+          <t>10,74</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-3,24</t>
+          <t>-1,11</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,99</t>
+          <t>2,82</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>68,64%</t>
+          <t>5,83</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-10,18%</t>
+          <t>64,09%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>22,77%</t>
+          <t>-3,46%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>15,39%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>19,68%</t>
         </is>
       </c>
     </row>
@@ -794,74 +860,90 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 23,17</t>
+          <t>-0,07; 21,25</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-16,89; 10,78</t>
+          <t>-14,98; 12,16</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,54; 15,81</t>
+          <t>-10,1; 13,21</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,04; 200,59</t>
+          <t>-10,36; 23,08</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-42,98; 50,46</t>
+          <t>-5,64; 173,83</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-33,31; 135,74</t>
+          <t>-39,63; 48,57</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-40,83; 105,93</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-27,13; 129,01</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,88</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-10,58</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-2,42</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>12,43%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-29,97%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-7,9%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -874,70 +956,94 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-11,05; 16,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-27,86; 1,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-13,38; 7,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-27,56; 71,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-59,43; 5,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-35,83; 33,62</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-2,74</t>
+          <t>3,81</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>11,94</t>
+          <t>-8,89</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>10,66</t>
+          <t>-1,87</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-6,29%</t>
+          <t>-17,65</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>35,06%</t>
+          <t>11,91%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>27,55%</t>
+          <t>-26,14%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-6,28%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-41,27%</t>
         </is>
       </c>
     </row>
@@ -950,32 +1056,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-14,34; 11,55</t>
+          <t>-12,56; 16,5</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 25,38</t>
+          <t>-27,75; 4,21</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 22,57</t>
+          <t>-12,88; 10,1</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-29,1; 33,64</t>
+          <t>-40,98; 0,03</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 102,31</t>
+          <t>-30,14; 70,93</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 74,54</t>
+          <t>-58,88; 18,62</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-34,06; 44,92</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-68,54; 2,17</t>
         </is>
       </c>
     </row>
@@ -983,37 +1099,47 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-1,14</t>
+          <t>-2,69</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-1,36</t>
+          <t>11,13</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-8,23</t>
+          <t>11,81</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-4,51%</t>
+          <t>8,87</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-4,43%</t>
+          <t>-6,13%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-26,85%</t>
+          <t>32,12%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>30,94%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>29,35%</t>
         </is>
       </c>
     </row>
@@ -1026,74 +1152,90 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-15,36; 11,19</t>
+          <t>-15,51; 11,9</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-16,54; 11,01</t>
+          <t>-1,81; 26,12</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-24,43; 3,22</t>
+          <t>-0,93; 23,4</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-45,17; 65,77</t>
+          <t>-5,71; 24,57</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-41,68; 46,83</t>
+          <t>-30,54; 32,79</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-57,67; 14,46</t>
+          <t>-4,94; 93,4</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-1,21; 80,09</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-13,96; 120,29</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-7,94</t>
+          <t>-1,12</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-6,93</t>
+          <t>-2,25</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,49</t>
+          <t>-9,94</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-23,05%</t>
+          <t>8,77</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-28,75%</t>
+          <t>-4,62%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>5,24%</t>
+          <t>-7,17%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-31,11%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>32,49%</t>
         </is>
       </c>
     </row>
@@ -1106,32 +1248,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-22,95; 2,91</t>
+          <t>-17,2; 10,6</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-15,14; 1,89</t>
+          <t>-16,73; 10,47</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-9,14; 10,17</t>
+          <t>-26,37; 2,31</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-49,55; 11,56</t>
+          <t>-5,28; 24,24</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-51,22; 10,6</t>
+          <t>-49,62; 62,7</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-26,09; 45,48</t>
+          <t>-40,81; 45,44</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-59,71; 9,25</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-13,37; 140,15</t>
         </is>
       </c>
     </row>
@@ -1139,37 +1291,47 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>13,86</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-6,87</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>33,15%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-13,26%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>1,93%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1182,70 +1344,94 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2,03; 26,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-19,57; 3,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-8,91; 10,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>5,48; 79,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-32,42; 7,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-16,25; 24,54</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-5,92</t>
+          <t>-4,31</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>13,8</t>
+          <t>-7,61</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-2,45</t>
+          <t>2,84</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-24,93%</t>
+          <t>-2,28</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>57,42%</t>
+          <t>-13,73%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-11,01%</t>
+          <t>-31,17%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>10,29%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-9,18%</t>
         </is>
       </c>
     </row>
@@ -1258,74 +1444,90 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-21,06; 4,08</t>
+          <t>-14,49; 5,88</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>3,26; 24,06</t>
+          <t>-16,11; 1,27</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-11,49; 5,84</t>
+          <t>-6,64; 11,62</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-61,31; 25,73</t>
+          <t>-11,78; 6,24</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>10,54; 139,69</t>
+          <t>-39,17; 23,16</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-38,98; 36,59</t>
+          <t>-54,47; 6,83</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-21,17; 51,61</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-39,33; 35,11</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>45-54</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>2,73</t>
+          <t>10,87</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>-7,19</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>5,6</t>
+          <t>-0,35</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>9,05%</t>
+          <t>3,03</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>0,4%</t>
+          <t>24,4%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>27,21%</t>
+          <t>-13,67%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-0,69%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>7,19%</t>
         </is>
       </c>
     </row>
@@ -1338,32 +1540,42 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-6,48; 11,01</t>
+          <t>-2,28; 20,96</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-8,31; 8,98</t>
+          <t>-18,81; 4,39</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 13,67</t>
+          <t>-10,28; 10,22</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-18,44; 42,19</t>
+          <t>-8,69; 13,68</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-26,24; 42,24</t>
+          <t>-4,58; 55,34</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-15,72; 84,13</t>
+          <t>-31,24; 10,08</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-18,39; 23,47</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-17,98; 39,24</t>
         </is>
       </c>
     </row>
@@ -1371,37 +1583,47 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-0,87</t>
+          <t>-6,57</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-0,88</t>
+          <t>14,8</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-5,72</t>
+          <t>-2,5</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-1,8%</t>
+          <t>-0,76</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-1,94%</t>
+          <t>-27,27%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-10,08%</t>
+          <t>64,43%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>-11,24%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>-2,3%</t>
         </is>
       </c>
     </row>
@@ -1414,32 +1636,42 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-9,61; 9,05</t>
+          <t>-17,41; 2,92</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-10,09; 10,03</t>
+          <t>3,86; 23,52</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-13,79; 3,19</t>
+          <t>-11,48; 4,77</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-18,29; 21,28</t>
+          <t>-13,24; 9,04</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-19,65; 26,12</t>
+          <t>-54,89; 18,15</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-22,56; 6,69</t>
+          <t>11,63; 129,72</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-40,36; 28,2</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>-30,93; 33,21</t>
         </is>
       </c>
     </row>
@@ -1447,37 +1679,47 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-1,87</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>0,77</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>0,12</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-8,69%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>2,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>0,53%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1490,74 +1732,94 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-9,82; 5,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-10,69; 9,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-7,9; 7,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-37,85; 32,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-30,86; 42,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-28,04; 40,85</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>55-64</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>2,68</t>
+          <t>1,7</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-2,5</t>
+          <t>1,12</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>3,41</t>
+          <t>4,56</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>9,16%</t>
+          <t>-2,77</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-9,53%</t>
+          <t>5,7%</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>13,58%</t>
+          <t>4,37%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>21,33%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>-9,67%</t>
         </is>
       </c>
     </row>
@@ -1570,32 +1832,42 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-6,77; 14,24</t>
+          <t>-6,28; 10,18</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-13,11; 7,91</t>
+          <t>-8,24; 9,43</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-5,41; 12,88</t>
+          <t>-4,12; 12,62</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-20,56; 64,58</t>
+          <t>-17,19; 6,35</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-40,53; 37,94</t>
+          <t>-18,34; 40,16</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-17,8; 64,38</t>
+          <t>-26,1; 46,64</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>-15,29; 77,89</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>-44,62; 28,96</t>
         </is>
       </c>
     </row>
@@ -1603,37 +1875,47 @@
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-6,38</t>
+          <t>-0,77</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-1,34</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-9,54</t>
+          <t>-5,73</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-13,18%</t>
+          <t>-2,75</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-2,98%</t>
+          <t>-1,57%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-17,68%</t>
+          <t>-0,21%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>-10,1%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>-6,24%</t>
         </is>
       </c>
     </row>
@@ -1646,32 +1928,42 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-18,47; 4,4</t>
+          <t>-9,56; 8,45</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-13,18; 10,07</t>
+          <t>-11,5; 9,46</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-19,9; -0,57</t>
+          <t>-13,93; 3,24</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-33,89; 10,78</t>
+          <t>-12,73; 8,39</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-25,05; 26,49</t>
+          <t>-18,07; 19,5</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-33,75; -0,99</t>
+          <t>-22,01; 23,3</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-23,36; 6,06</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-24,98; 22,37</t>
         </is>
       </c>
     </row>
@@ -1679,37 +1971,47 @@
       <c r="A32" s="1" t="n"/>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>3,7</t>
+          <t>-0,93</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>3,84</t>
+          <t>-1,03</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>6,13</t>
+          <t>1,17</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>16,54%</t>
+          <t>5,53</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>13,31%</t>
+          <t>-4,44%</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>29,27%</t>
+          <t>-3,55%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>5,36%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>20,32%</t>
         </is>
       </c>
     </row>
@@ -1722,74 +2024,90 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-6,3; 12,71</t>
+          <t>-8,73; 6,85</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-7,09; 13,77</t>
+          <t>-11,36; 7,97</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 14,11</t>
+          <t>-5,79; 9,01</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-23,15; 73,45</t>
+          <t>-4,62; 15,0</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-21,2; 57,34</t>
+          <t>-34,32; 41,18</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-9,38; 81,56</t>
+          <t>-31,81; 34,13</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>-21,79; 50,79</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>-14,01; 70,04</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>-6,76</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>7,96</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>-6,3</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>-19,74%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>36,47%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>-22,63%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1802,70 +2120,94 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-20,61; 4,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 19,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-15,76; 3,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-49,03; 15,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-14,2; 122,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-48,58; 16,86</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n"/>
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>9,47</t>
+          <t>2,64</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>-0,61</t>
+          <t>-1,68</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>3,39</t>
+          <t>3,05</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>25,4%</t>
+          <t>4,5</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>-1,46%</t>
+          <t>9,09%</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>8,52%</t>
+          <t>-6,53%</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>12,09%</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>19,18%</t>
         </is>
       </c>
     </row>
@@ -1878,32 +2220,42 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-5,06; 22,31</t>
+          <t>-7,32; 12,52</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-14,9; 13,53</t>
+          <t>-13,11; 8,27</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-9,27; 14,94</t>
+          <t>-5,71; 11,91</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-12,1; 77,44</t>
+          <t>-7,2; 15,52</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-30,65; 41,0</t>
+          <t>-23,1; 52,38</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-19,68; 44,34</t>
+          <t>-40,29; 42,36</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>-19,89; 53,08</t>
+        </is>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>-26,08; 82,67</t>
         </is>
       </c>
     </row>
@@ -1911,37 +2263,47 @@
       <c r="A38" s="1" t="n"/>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>-2,7</t>
+          <t>-5,26</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>-7,36</t>
+          <t>-2,79</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>2,91</t>
+          <t>-10,16</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>-9,5%</t>
+          <t>-3,54</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>-20,04%</t>
+          <t>-10,85%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>8,98%</t>
+          <t>-6,08%</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>-18,7%</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>-7,22%</t>
         </is>
       </c>
     </row>
@@ -1954,74 +2316,90 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-14,43; 8,32</t>
+          <t>-16,17; 8,37</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-27,02; 6,03</t>
+          <t>-14,24; 8,69</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-8,42; 13,97</t>
+          <t>-20,3; -1,29</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-40,92; 37,04</t>
+          <t>-15,69; 10,07</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-53,71; 21,46</t>
+          <t>-29,79; 19,56</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-22,25; 53,18</t>
+          <t>-28,41; 21,14</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>-34,29; -2,22</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>-29,2; 23,39</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A40" s="1" t="n"/>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>-2,76</t>
+          <t>2,62</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>-0,56</t>
+          <t>4,46</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>1,16</t>
+          <t>7,11</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>-8,48%</t>
+          <t>-0,97</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>-2,26%</t>
+          <t>11,67%</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>4,39%</t>
+          <t>15,68%</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>34,82%</t>
+        </is>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>-3,52%</t>
         </is>
       </c>
     </row>
@@ -2034,32 +2412,42 @@
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>-8,1; 1,97</t>
+          <t>-6,92; 12,27</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>-5,54; 3,35</t>
+          <t>-5,23; 15,33</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>-2,67; 5,1</t>
+          <t>-1,43; 15,0</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>-22,27; 6,65</t>
+          <t>-12,64; 10,17</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>-20,06; 15,12</t>
+          <t>-24,63; 71,64</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>-9,5; 21,37</t>
+          <t>-14,65; 64,18</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>-5,29; 90,76</t>
+        </is>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>-37,08; 48,05</t>
         </is>
       </c>
     </row>
@@ -2067,37 +2455,47 @@
       <c r="A42" s="1" t="n"/>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>2,75</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>-1,08</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>-1,52</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>6,2%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>-2,37%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>-3,1%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -2110,70 +2508,94 @@
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 7,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>-6,23; 4,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>-6,6; 2,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>-4,66; 19,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>-12,75; 9,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>-12,64; 6,41</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n"/>
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>-6,55</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>1,64</t>
+          <t>7,8</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>-7,58</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>0,04%</t>
+          <t>-6,51</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>5,52%</t>
+          <t>-17,95%</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>1,46%</t>
+          <t>33,69%</t>
+        </is>
+      </c>
+      <c r="I44" s="2" t="inlineStr">
+        <is>
+          <t>-26,66%</t>
+        </is>
+      </c>
+      <c r="J44" s="2" t="inlineStr">
+        <is>
+          <t>-20,21%</t>
         </is>
       </c>
     </row>
@@ -2186,47 +2608,740 @@
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>-5,13; 4,39</t>
+          <t>-20,75; 4,52</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 6,52</t>
+          <t>-3,36; 20,72</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>-4,12; 4,63</t>
+          <t>-17,45; 2,05</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>-19,72; 21,09</t>
+          <t>-22,07; 7,8</t>
         </is>
       </c>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>-11,27; 24,12</t>
+          <t>-44,95; 16,21</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>-15,25; 21,39</t>
+          <t>-11,74; 128,58</t>
+        </is>
+      </c>
+      <c r="I45" s="2" t="inlineStr">
+        <is>
+          <t>-50,69; 10,7</t>
+        </is>
+      </c>
+      <c r="J45" s="2" t="inlineStr">
+        <is>
+          <t>-53,13; 34,37</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n"/>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>8,66</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>-1,62</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="inlineStr">
+        <is>
+          <t>4,81</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>-4,06</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="inlineStr">
+        <is>
+          <t>24,94%</t>
+        </is>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>-3,83%</t>
+        </is>
+      </c>
+      <c r="I46" s="2" t="inlineStr">
+        <is>
+          <t>12,27%</t>
+        </is>
+      </c>
+      <c r="J46" s="2" t="inlineStr">
+        <is>
+          <t>-8,98%</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n"/>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>-2,84; 20,37</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>-14,83; 12,08</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="inlineStr">
+        <is>
+          <t>-6,54; 16,45</t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="inlineStr">
+        <is>
+          <t>-18,2; 11,81</t>
+        </is>
+      </c>
+      <c r="G47" s="2" t="inlineStr">
+        <is>
+          <t>-6,47; 73,13</t>
+        </is>
+      </c>
+      <c r="H47" s="2" t="inlineStr">
+        <is>
+          <t>-29,51; 37,81</t>
+        </is>
+      </c>
+      <c r="I47" s="2" t="inlineStr">
+        <is>
+          <t>-13,9; 50,98</t>
+        </is>
+      </c>
+      <c r="J47" s="2" t="inlineStr">
+        <is>
+          <t>-34,37; 33,46</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n"/>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>-2,1</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>-6,18</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>2,78</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>10,57</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="inlineStr">
+        <is>
+          <t>-7,31%</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>-17,93%</t>
+        </is>
+      </c>
+      <c r="I48" s="2" t="inlineStr">
+        <is>
+          <t>8,57%</t>
+        </is>
+      </c>
+      <c r="J48" s="2" t="inlineStr">
+        <is>
+          <t>46,75%</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n"/>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>-13,58; 8,42</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="inlineStr">
+        <is>
+          <t>-24,13; 6,03</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>-8,31; 14,01</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>-4,08; 23,81</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="inlineStr">
+        <is>
+          <t>-39,94; 36,7</t>
+        </is>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>-51,69; 24,65</t>
+        </is>
+      </c>
+      <c r="I49" s="2" t="inlineStr">
+        <is>
+          <t>-21,73; 50,66</t>
+        </is>
+      </c>
+      <c r="J49" s="2" t="inlineStr">
+        <is>
+          <t>-17,88; 142,44</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n"/>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n"/>
+      <c r="B51" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B52" s="3" t="inlineStr">
+        <is>
+          <t>Más diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>-1,85</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>-0,51</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t>1,09</t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>-6,17</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="inlineStr">
+        <is>
+          <t>-5,74%</t>
+        </is>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>-2,06%</t>
+        </is>
+      </c>
+      <c r="I52" s="2" t="inlineStr">
+        <is>
+          <t>4,11%</t>
+        </is>
+      </c>
+      <c r="J52" s="2" t="inlineStr">
+        <is>
+          <t>-19,74%</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n"/>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>-6,66; 2,8</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>-5,55; 4,08</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>-2,77; 4,82</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="inlineStr">
+        <is>
+          <t>-13,49; -0,52</t>
+        </is>
+      </c>
+      <c r="G53" s="2" t="inlineStr">
+        <is>
+          <t>-18,61; 9,88</t>
+        </is>
+      </c>
+      <c r="H53" s="2" t="inlineStr">
+        <is>
+          <t>-19,91; 18,51</t>
+        </is>
+      </c>
+      <c r="I53" s="2" t="inlineStr">
+        <is>
+          <t>-9,74; 19,87</t>
+        </is>
+      </c>
+      <c r="J53" s="2" t="inlineStr">
+        <is>
+          <t>-35,69; -1,7</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n"/>
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>1,89</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>-1,31</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>-1,37</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>1,46</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="inlineStr">
+        <is>
+          <t>4,23%</t>
+        </is>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>-2,87%</t>
+        </is>
+      </c>
+      <c r="I54" s="2" t="inlineStr">
+        <is>
+          <t>-2,81%</t>
+        </is>
+      </c>
+      <c r="J54" s="2" t="inlineStr">
+        <is>
+          <t>3,58%</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n"/>
+      <c r="B55" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>-3,17; 6,72</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>-6,28; 3,82</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="inlineStr">
+        <is>
+          <t>-6,01; 2,9</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t>-4,01; 7,92</t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="inlineStr">
+        <is>
+          <t>-6,64; 15,95</t>
+        </is>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>-12,88; 9,09</t>
+        </is>
+      </c>
+      <c r="I55" s="2" t="inlineStr">
+        <is>
+          <t>-11,73; 6,08</t>
+        </is>
+      </c>
+      <c r="J55" s="2" t="inlineStr">
+        <is>
+          <t>-8,84; 21,42</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n"/>
+      <c r="B56" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>-0,04</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>1,82</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>0,29</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="inlineStr">
+        <is>
+          <t>4,72</t>
+        </is>
+      </c>
+      <c r="G56" s="2" t="inlineStr">
+        <is>
+          <t>-0,19%</t>
+        </is>
+      </c>
+      <c r="H56" s="2" t="inlineStr">
+        <is>
+          <t>6,2%</t>
+        </is>
+      </c>
+      <c r="I56" s="2" t="inlineStr">
+        <is>
+          <t>1,17%</t>
+        </is>
+      </c>
+      <c r="J56" s="2" t="inlineStr">
+        <is>
+          <t>16,87%</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n"/>
+      <c r="B57" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>-4,89; 3,9</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="inlineStr">
+        <is>
+          <t>-4,12; 6,49</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="inlineStr">
+        <is>
+          <t>-4,29; 4,05</t>
+        </is>
+      </c>
+      <c r="F57" s="2" t="inlineStr">
+        <is>
+          <t>-0,71; 10,26</t>
+        </is>
+      </c>
+      <c r="G57" s="2" t="inlineStr">
+        <is>
+          <t>-18,5; 18,92</t>
+        </is>
+      </c>
+      <c r="H57" s="2" t="inlineStr">
+        <is>
+          <t>-12,31; 24,56</t>
+        </is>
+      </c>
+      <c r="I57" s="2" t="inlineStr">
+        <is>
+          <t>-15,58; 18,48</t>
+        </is>
+      </c>
+      <c r="J57" s="2" t="inlineStr">
+        <is>
+          <t>-2,42; 42,16</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n"/>
+      <c r="B58" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n"/>
+      <c r="B59" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="A44:A51"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A52:A59"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
